--- a/biology/Botanique/Tillandsia_regnellii/Tillandsia_regnellii.xlsx
+++ b/biology/Botanique/Tillandsia_regnellii/Tillandsia_regnellii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia regnellii Mez est une plante de la famille des Bromeliaceae.
 Le terme regnellii est une dédicace au botaniste A.F. Regnell, collecteur de la plante.
@@ -512,10 +524,12 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tillandsia regnellii Mez in Mart., Fl. Bras. 3(3): 592, tab. 110 (1894) (pro « regnelli »)
-Diagnose originale[1] :
+Diagnose originale :
 « TILLANDSIA REGNELLI Mez n. sp. foliis dense rosulatis utriculum haud efformantibus, quaquaversis, e late lineari perlonge acutis, dense lepidibus maximis obtectis +/- sericantibus; inflorescentia scapo recto elata, submultiflora, digitatim e spicis 5-10 composita panniculata[sic], folia aequante; bracteis floralibus late ovatis, longiuscule acutis paulloque mucronatis, dorso dense lepidotis, sepala superantibus; sepalis margine fimbriatis ceterum glabris, antico cum reliquis ad 2, posticis inter sese ad 3 mm. connatis; petalis lamina ovali, suberecta; staminibus quam petala brevioribus, antheris apice longe acutis; style antheras superante. »
 Type :
 leg. A.F. Regnell, n° (III)1798, 1823-06-23, pro « Tillandsia gardneri Lindl. » ; « in Brasiliae prov. Minas Geraës ad Caldas, lateribus rupium apricopum innascens » ; « Brasil: Caldas ad latera rupium apricarum » ; Holotypus B (B 10 0247200) Nb : ce spécimen d'herbier a été secondairement étiqueté « Lectotype of Tillandsia regnellii Mez », cependant Mez cite explicitement et complètement ce seul spécimen de Berlin pour type, il s’agit donc bien de l'holotype.
@@ -547,9 +561,11 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Tillandsia gardneri Lindl[2]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Tillandsia gardneri Lindl</t>
         </is>
       </c>
     </row>
@@ -578,6 +594,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -603,10 +621,12 @@
           <t>Écologie et habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Typologie : plante herbacée en rosette acaule monocarpique vivace par ses rejets latéraux ; saxicole[1],[3]
-Habitat : parois rocheuses ensoleillées[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Typologie : plante herbacée en rosette acaule monocarpique vivace par ses rejets latéraux ; saxicole,
+Habitat : parois rocheuses ensoleillées.
 Altitude : ?</t>
         </is>
       </c>
@@ -635,11 +655,13 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Amérique du sud :
  Brésil
-Minas Gerais[1]</t>
+Minas Gerais</t>
         </is>
       </c>
     </row>
@@ -668,6 +690,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
